--- a/src/test/resources/testdata/Client/Product1 - Copy.xlsx
+++ b/src/test/resources/testdata/Client/Product1 - Copy.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProductNew\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D8DBC6-E1B3-4D17-9159-D2BAF358EE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085FDC2D-8BDF-49F8-900A-D69A9D4A60CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario2" sheetId="2" r:id="rId1"/>
-    <sheet name="Scenario1" r:id="rId6" sheetId="3"/>
+    <sheet name="Scenario1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Steps</t>
   </si>
@@ -63,73 +63,12 @@
   </si>
   <si>
     <t>Verify Page Title</t>
-  </si>
-  <si>
-    <t>Verify Default Value</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ctl00$content$txtUserName</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>input_Login_UserName</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter value</t>
-  </si>
-  <si>
-    <t>ashwani_fil</t>
-  </si>
-  <si>
-    <t>ctl00$content$txtPassword</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>input_Login_Password</t>
-  </si>
-  <si>
-    <t>Password1@3</t>
-  </si>
-  <si>
-    <t>Click element</t>
-  </si>
-  <si>
-    <t>//input[@type='submit']</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>xPath</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Create Reusable Method</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>Password`1@3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,13 +437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBBAB8-CD98-4A96-A4DD-D167B9097188}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,15 +472,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,15 +496,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -605,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -614,6 +550,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>